--- a/results/income_and_expenses_sheet.xlsx
+++ b/results/income_and_expenses_sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Betterplace</t>
+          <t>cash payment/income</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>other income</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>donations</t>
+          <t>other income</t>
         </is>
       </c>
     </row>
@@ -839,11 +839,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EWE TEL</t>
+          <t>Betterplace</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -852,12 +852,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>donations</t>
         </is>
       </c>
     </row>
@@ -867,16 +867,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03.07.2023</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>EWE TEL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-76.56</v>
+        <v>-40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -885,12 +885,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>internet</t>
         </is>
       </c>
     </row>
@@ -900,16 +900,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07.07.2023</t>
+          <t>03.07.2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ARO Restaurant</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-38.99</v>
+        <v>-76.56</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -918,12 +918,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>quality time</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>restaurant and bar</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -933,16 +933,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08.07.2023</t>
+          <t>07.07.2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Amazon Order 123 (dog bed)</t>
+          <t>ARO Restaurant</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-98.98999999999999</v>
+        <v>-38.99</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -951,12 +951,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>quality time</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>dog stuff</t>
+          <t>restaurant and bar</t>
         </is>
       </c>
     </row>
@@ -971,11 +971,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aral</t>
+          <t>Amazon Order 123 (dog bed)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-50</v>
+        <v>-98.98999999999999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -984,12 +984,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>fuel/carwash</t>
+          <t>dog stuff</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09.07.2023</t>
+          <t>08.07.2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rewe</t>
+          <t>Aral</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-23.1</v>
+        <v>-12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>car</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>fuel/carwash</t>
         </is>
       </c>
     </row>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Netto</t>
+          <t>Rewe</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-110.98</v>
+        <v>-23.1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1098,16 +1098,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12.07.2023</t>
+          <t>09.07.2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Barts Barber Shop</t>
+          <t>Netto</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-20</v>
+        <v>-110.98</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>barber</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hirsch Apotheke</t>
+          <t>Barts Barber Shop</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-4.95</v>
+        <v>-20</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>pharmacy</t>
+          <t>barber</t>
         </is>
       </c>
     </row>
@@ -1197,16 +1197,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13.07.2023</t>
+          <t>12.07.2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cinestar</t>
+          <t>Hirsch Apotheke</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-35</v>
+        <v>-4.95</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1215,12 +1215,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>quality time</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>activites</t>
+          <t>pharmacy</t>
         </is>
       </c>
     </row>
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fleur</t>
+          <t>Cinestar</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>quality time</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>activites</t>
         </is>
       </c>
     </row>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thalia</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>presents</t>
         </is>
       </c>
     </row>
@@ -1296,16 +1296,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14.07.2023</t>
+          <t>13.07.2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Steam Order 123</t>
+          <t>Thalia</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-15.99</v>
+        <v>-20</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>videogames</t>
+          <t>other expenses</t>
         </is>
       </c>
     </row>
@@ -1329,16 +1329,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18.07.2023</t>
+          <t>14.07.2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rewe</t>
+          <t>Steam Order 123</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-6.98</v>
+        <v>-15.99</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>videogames</t>
         </is>
       </c>
     </row>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lidl</t>
+          <t>Amazon Order 456 (dog toy)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-78.20999999999999</v>
+        <v>-12.85</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1380,12 +1380,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>dog stuff</t>
         </is>
       </c>
     </row>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Combi</t>
+          <t>Rewe</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-96.78</v>
+        <v>-6.98</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Amazon Order 456 (dog toy)</t>
+          <t>Lidl</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-12.85</v>
+        <v>-78.20999999999999</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>dog stuff</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -1461,16 +1461,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21.07.2023</t>
+          <t>18.07.2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Burger King</t>
+          <t>Combi</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-12.45</v>
+        <v>-96.78</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>quality time</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>restaurant and bar</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22.07.2023</t>
+          <t>21.07.2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Famila</t>
+          <t>Burger King</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-42.92</v>
+        <v>-12.45</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>quality time</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>restaurant and bar</t>
         </is>
       </c>
     </row>
@@ -1532,25 +1532,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Transfer from 2nd account</t>
+          <t>Famila</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>-42.92</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>account stuff</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>transfers</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -1565,25 +1565,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aleco</t>
+          <t>Transfer from 2nd account</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-56.56</v>
+        <v>50</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>income</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>account stuff</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>transfers</t>
         </is>
       </c>
     </row>
@@ -1593,16 +1593,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23.07.2023</t>
+          <t>22.07.2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>McDonalds</t>
+          <t>Aleco</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-14.99</v>
+        <v>-56.56</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>quality time</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>restaurant and bar</t>
+          <t>groceries/drugstore</t>
         </is>
       </c>
     </row>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Amazon Order 789 (blanket)</t>
+          <t>McDonalds</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-48.53</v>
+        <v>-14.99</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1644,12 +1644,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>other expenses</t>
+          <t>quality time</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>restaurant and bar</t>
         </is>
       </c>
     </row>
@@ -1659,16 +1659,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26.07.2023</t>
+          <t>23.07.2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lindas Birthday</t>
+          <t>Amazon Order 789 (blanket)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-10</v>
+        <v>-48.53</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Avia</t>
+          <t>Lindas Birthday</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-48.65</v>
+        <v>-10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1710,12 +1710,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>other expenses</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>fuel/carwash</t>
+          <t>presents</t>
         </is>
       </c>
     </row>
@@ -1725,16 +1725,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28.07.2023</t>
+          <t>26.07.2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aleco</t>
+          <t>Avia</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-45</v>
+        <v>-48.65</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>car</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>groceries/drugstore</t>
+          <t>fuel/carwash</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>groceries and more</t>
+          <t>cost of living</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1791,28 +1791,61 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>28.07.2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Aleco</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>cost of living</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>groceries/drugstore</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>29.07.2023</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Steam Order 987</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>-48.99</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>expenses</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>expenses</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>other expenses</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>videogames</t>
         </is>
